--- a/app/webroot/img/2.xlsx
+++ b/app/webroot/img/2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>DATOS PERSONALES</t>
   </si>
@@ -25,13 +25,13 @@
     <t>Nombre Completo</t>
   </si>
   <si>
-    <t>ooooooonnw</t>
+    <t>oscar lizarazu montaño</t>
   </si>
   <si>
     <t>Direccion</t>
   </si>
   <si>
-    <t>nkjnknkjn</t>
+    <t>cbba</t>
   </si>
   <si>
     <t>Telefono</t>
@@ -46,13 +46,13 @@
     <t>Mensaje</t>
   </si>
   <si>
-    <t>enljfwkj nwkjen jwkenjk</t>
+    <t>afa afamlkmwelk mwkle afa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkleafa afamlkmwelk mwkle</t>
   </si>
   <si>
     <t>Fecha de creacion</t>
   </si>
   <si>
-    <t>2013-09-21 14:47:09</t>
+    <t>2013-09-23 16:34:15</t>
   </si>
   <si>
     <t>Nombre</t>
@@ -67,7 +67,13 @@
     <t>Detalle</t>
   </si>
   <si>
-    <t>PECHUGA DE PAVO COCIDA sachets</t>
+    <t>PATÉ DE PAVO PATÉ 150 gr.</t>
+  </si>
+  <si>
+    <t>PECHUGA DE PAVO COCIDA barra</t>
+  </si>
+  <si>
+    <t>foakosdka</t>
   </si>
 </sst>
 </file>
@@ -270,6 +276,43 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="1500000"/>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:effectLst>
+          <a:outerShdw blurRad="57150" dist="19050" dir="2700000" algn="br" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="50000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="990600" cy="952500"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Logo" descr="Logo"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -583,7 +626,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H65"/>
+  <dimension ref="A1:H66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="C5" sqref="C5"/>
@@ -659,7 +702,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="13">
-        <v>88787</v>
+        <v>987979</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -756,7 +799,7 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7">
-        <v>7878</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="1"/>
@@ -765,12 +808,18 @@
     <row r="15" spans="1:8" customHeight="1" ht="72">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="E15" s="7">
+        <v>8787</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:8" customHeight="1" ht="72">
       <c r="A16" s="4"/>
@@ -1271,6 +1320,16 @@
       <c r="F65" s="7"/>
       <c r="G65" s="5"/>
       <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:8" customHeight="1" ht="72">
+      <c r="A66" s="4"/>
+      <c r="B66" s="4"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
